--- a/Code/Results/Cases/Case_2_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014455107266208</v>
+        <v>1.044796083760568</v>
       </c>
       <c r="D2">
-        <v>1.028449299253707</v>
+        <v>1.045392648093783</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>0.992063502768196</v>
+        <v>1.043621970825725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050920299058038</v>
+        <v>1.043459900759641</v>
       </c>
       <c r="J2">
-        <v>1.036211900110443</v>
+        <v>1.04985925243749</v>
       </c>
       <c r="K2">
-        <v>1.039526022824242</v>
+        <v>1.048161015827129</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.003634524270468</v>
+        <v>1.04639531853913</v>
       </c>
       <c r="N2">
-        <v>1.037683439863766</v>
+        <v>1.051350172996491</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021814547589002</v>
+        <v>1.046148677058986</v>
       </c>
       <c r="D3">
-        <v>1.034113302827907</v>
+        <v>1.04642776934678</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.002155628674011</v>
+        <v>1.045601348538653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054079147683825</v>
+        <v>1.043932582764505</v>
       </c>
       <c r="J3">
-        <v>1.041727689355141</v>
+        <v>1.050857253995145</v>
       </c>
       <c r="K3">
-        <v>1.044327538560694</v>
+        <v>1.049006985890745</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.012761001932654</v>
+        <v>1.048182718305146</v>
       </c>
       <c r="N3">
-        <v>1.043207062161862</v>
+        <v>1.052349591830829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026412609045243</v>
+        <v>1.047021360145061</v>
       </c>
       <c r="D4">
-        <v>1.037652599169412</v>
+        <v>1.047095262747458</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.008454877263832</v>
+        <v>1.046879323976043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056037250559599</v>
+        <v>1.044235748291527</v>
       </c>
       <c r="J4">
-        <v>1.04516398680645</v>
+        <v>1.051500048427794</v>
       </c>
       <c r="K4">
-        <v>1.047316874935705</v>
+        <v>1.04955148872771</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.018452319243295</v>
+        <v>1.049336083775651</v>
       </c>
       <c r="N4">
-        <v>1.0466482395497</v>
+        <v>1.052993299105303</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028308788201341</v>
+        <v>1.04738763830506</v>
       </c>
       <c r="D5">
-        <v>1.039112198857519</v>
+        <v>1.047375332967939</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.011051589105553</v>
+        <v>1.047415928707279</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056840997732897</v>
+        <v>1.044362558721632</v>
       </c>
       <c r="J5">
-        <v>1.046578691328998</v>
+        <v>1.051769573303285</v>
       </c>
       <c r="K5">
-        <v>1.04854706679269</v>
+        <v>1.049779710525772</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.020797134312752</v>
+        <v>1.049820208180277</v>
       </c>
       <c r="N5">
-        <v>1.048064953114939</v>
+        <v>1.053263206737032</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028625070132608</v>
+        <v>1.047449103227735</v>
       </c>
       <c r="D6">
-        <v>1.039355659617752</v>
+        <v>1.047422326275686</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.011484672479308</v>
+        <v>1.047505989035115</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056974841041771</v>
+        <v>1.044383813314128</v>
       </c>
       <c r="J6">
-        <v>1.04681452327956</v>
+        <v>1.051814786533546</v>
       </c>
       <c r="K6">
-        <v>1.048752110119384</v>
+        <v>1.049817989851547</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.021188128764051</v>
+        <v>1.049901451255848</v>
       </c>
       <c r="N6">
-        <v>1.048301119973921</v>
+        <v>1.053308484175265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02643808764892</v>
+        <v>1.047026256709513</v>
       </c>
       <c r="D7">
-        <v>1.037672211479316</v>
+        <v>1.047099007189104</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.008489772236503</v>
+        <v>1.046886496671275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056048065251179</v>
+        <v>1.044237445250024</v>
       </c>
       <c r="J7">
-        <v>1.045183005362215</v>
+        <v>1.051503652597071</v>
       </c>
       <c r="K7">
-        <v>1.047333415021553</v>
+        <v>1.049554540931139</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.018483834367157</v>
+        <v>1.049342555598635</v>
       </c>
       <c r="N7">
-        <v>1.046667285113995</v>
+        <v>1.052996908392914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.016977750973753</v>
+        <v>1.045253729451071</v>
       </c>
       <c r="D8">
-        <v>1.030390624444504</v>
+        <v>1.045742952142798</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>0.9955244517032442</v>
+        <v>1.044291504150657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052006341262939</v>
+        <v>1.043620205506971</v>
       </c>
       <c r="J8">
-        <v>1.038104671358828</v>
+        <v>1.05019715306546</v>
       </c>
       <c r="K8">
-        <v>1.041174088536001</v>
+        <v>1.048447518831006</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.006765390381329</v>
+        <v>1.047000051293578</v>
       </c>
       <c r="N8">
-        <v>1.039578899064427</v>
+        <v>1.051688553482111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9989284536544164</v>
+        <v>1.042110481509635</v>
       </c>
       <c r="D9">
-        <v>1.016506720645732</v>
+        <v>1.043335509280773</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9707120198339062</v>
+        <v>1.039696448504831</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044169350214195</v>
+        <v>1.042511759174496</v>
       </c>
       <c r="J9">
-        <v>1.02451910781202</v>
+        <v>1.047871784386871</v>
       </c>
       <c r="K9">
-        <v>1.029337546667633</v>
+        <v>1.046474341913634</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9842988465273295</v>
+        <v>1.042847014955785</v>
       </c>
       <c r="N9">
-        <v>1.025974042459097</v>
+        <v>1.049359882513274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9857685140947385</v>
+        <v>1.040001071912495</v>
       </c>
       <c r="D10">
-        <v>1.006396583069598</v>
+        <v>1.041718101556942</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9525254727452116</v>
+        <v>1.036616939969973</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038371001458065</v>
+        <v>1.041758564207379</v>
       </c>
       <c r="J10">
-        <v>1.014558377229652</v>
+        <v>1.04630550697576</v>
       </c>
       <c r="K10">
-        <v>1.020651297753811</v>
+        <v>1.045143393664752</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9678082733872078</v>
+        <v>1.040060335737761</v>
       </c>
       <c r="N10">
-        <v>1.01599916649679</v>
+        <v>1.047791380808585</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9797478296506358</v>
+        <v>1.039084244720728</v>
       </c>
       <c r="D11">
-        <v>1.001776011634901</v>
+        <v>1.04101470178102</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9441699922665758</v>
+        <v>1.035279402220576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03569860714052</v>
+        <v>1.041428990366504</v>
       </c>
       <c r="J11">
-        <v>1.009988085627684</v>
+        <v>1.045623384110342</v>
       </c>
       <c r="K11">
-        <v>1.016664512518723</v>
+        <v>1.044563314015446</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9602276050433216</v>
+        <v>1.038849179209102</v>
       </c>
       <c r="N11">
-        <v>1.011422384556528</v>
+        <v>1.047108289250456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9774573810372719</v>
+        <v>1.03874316630323</v>
       </c>
       <c r="D12">
-        <v>1.000019106808788</v>
+        <v>1.040752961251952</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9409847329589914</v>
+        <v>1.034781945110913</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034679032261288</v>
+        <v>1.041306050855474</v>
       </c>
       <c r="J12">
-        <v>1.008247404040421</v>
+        <v>1.045369416056037</v>
       </c>
       <c r="K12">
-        <v>1.015145940771472</v>
+        <v>1.044347272418598</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9573371905323789</v>
+        <v>1.038398605106651</v>
       </c>
       <c r="N12">
-        <v>1.009679231001753</v>
+        <v>1.046853960532384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9779512400044625</v>
+        <v>1.038816352856722</v>
       </c>
       <c r="D13">
-        <v>1.000397881281686</v>
+        <v>1.040809126726154</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9416718486798621</v>
+        <v>1.034888680479688</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0348990005556</v>
+        <v>1.041332445459834</v>
       </c>
       <c r="J13">
-        <v>1.00862281484568</v>
+        <v>1.04542392024074</v>
       </c>
       <c r="K13">
-        <v>1.015473454177236</v>
+        <v>1.044393640182971</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9579607245369918</v>
+        <v>1.038495286623585</v>
       </c>
       <c r="N13">
-        <v>1.010055174933414</v>
+        <v>1.046908542119281</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9795596403680964</v>
+        <v>1.039056061908829</v>
       </c>
       <c r="D14">
-        <v>1.001631640445727</v>
+        <v>1.040993075791408</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9439084246798815</v>
+        <v>1.035238295361029</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035614895011158</v>
+        <v>1.041418838807691</v>
       </c>
       <c r="J14">
-        <v>1.00984510737179</v>
+        <v>1.045602403268812</v>
       </c>
       <c r="K14">
-        <v>1.016539780438124</v>
+        <v>1.044545467708025</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9599902594001991</v>
+        <v>1.038811948939025</v>
       </c>
       <c r="N14">
-        <v>1.01127920325511</v>
+        <v>1.047087278613726</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805432739863497</v>
+        <v>1.039203684264424</v>
       </c>
       <c r="D15">
-        <v>1.002386281823023</v>
+        <v>1.041106350818299</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.945275318874371</v>
+        <v>1.035453619699181</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036052326134785</v>
+        <v>1.041471999398385</v>
       </c>
       <c r="J15">
-        <v>1.010592349126298</v>
+        <v>1.04571229313592</v>
       </c>
       <c r="K15">
-        <v>1.017191658039482</v>
+        <v>1.044638937338544</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9612305545501068</v>
+        <v>1.039006962139108</v>
       </c>
       <c r="N15">
-        <v>1.01202750617862</v>
+        <v>1.047197324537049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.986160833485388</v>
+        <v>1.040061845296479</v>
       </c>
       <c r="D16">
-        <v>1.006697781874547</v>
+        <v>1.041764718903892</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9530691047143894</v>
+        <v>1.036705619937105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038544738099993</v>
+        <v>1.041780364133503</v>
       </c>
       <c r="J16">
-        <v>1.01485591222188</v>
+        <v>1.046350693972683</v>
       </c>
       <c r="K16">
-        <v>1.020910824159767</v>
+        <v>1.045181811546144</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.968301414149931</v>
+        <v>1.040140619597649</v>
       </c>
       <c r="N16">
-        <v>1.016297124022835</v>
+        <v>1.047836631976226</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9895945698820031</v>
+        <v>1.040599218392741</v>
       </c>
       <c r="D17">
-        <v>1.009334554340781</v>
+        <v>1.042176873152797</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9578231213130731</v>
+        <v>1.037489856417636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040063151617892</v>
+        <v>1.041972869923656</v>
       </c>
       <c r="J17">
-        <v>1.017458570769871</v>
+        <v>1.046750091522209</v>
       </c>
       <c r="K17">
-        <v>1.023180870886837</v>
+        <v>1.045521327343694</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9726134127117269</v>
+        <v>1.040850512766212</v>
       </c>
       <c r="N17">
-        <v>1.018903478644493</v>
+        <v>1.048236596716084</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9915667385659644</v>
+        <v>1.040912327993958</v>
       </c>
       <c r="D18">
-        <v>1.010849424524354</v>
+        <v>1.042416981872518</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.960550411684865</v>
+        <v>1.037946895106214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040933417745254</v>
+        <v>1.042084824162318</v>
       </c>
       <c r="J18">
-        <v>1.018952174312769</v>
+        <v>1.046982676295807</v>
       </c>
       <c r="K18">
-        <v>1.024483474293836</v>
+        <v>1.045718997915534</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9750867091819305</v>
+        <v>1.041264148012572</v>
       </c>
       <c r="N18">
-        <v>1.020399203275741</v>
+        <v>1.048469511786739</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9922341515313923</v>
+        <v>1.041019034467718</v>
       </c>
       <c r="D19">
-        <v>1.01136215003481</v>
+        <v>1.042498803136295</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9614728644861819</v>
+        <v>1.038102667445217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041227617112166</v>
+        <v>1.042122941648363</v>
       </c>
       <c r="J19">
-        <v>1.01945742411776</v>
+        <v>1.047061918012432</v>
       </c>
       <c r="K19">
-        <v>1.024924091030957</v>
+        <v>1.045786337091842</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9759231794655656</v>
+        <v>1.041405114016835</v>
       </c>
       <c r="N19">
-        <v>1.020905170593408</v>
+        <v>1.04854886603569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9892293728843353</v>
+        <v>1.040541597667366</v>
       </c>
       <c r="D20">
-        <v>1.009054072142682</v>
+        <v>1.04213268335826</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9573178446719874</v>
+        <v>1.037405756089228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039901850631039</v>
+        <v>1.041952250160689</v>
       </c>
       <c r="J20">
-        <v>1.017181892121099</v>
+        <v>1.046707279012205</v>
       </c>
       <c r="K20">
-        <v>1.022939563242134</v>
+        <v>1.045484938140253</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9721551581039609</v>
+        <v>1.040774392920999</v>
       </c>
       <c r="N20">
-        <v>1.018626407080305</v>
+        <v>1.048193723407405</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9790875504333213</v>
+        <v>1.038985488233841</v>
       </c>
       <c r="D21">
-        <v>1.001269487246144</v>
+        <v>1.040938920320399</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9432521479632774</v>
+        <v>1.035135360224155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035404848813793</v>
+        <v>1.041393412545535</v>
       </c>
       <c r="J21">
-        <v>1.009486401132929</v>
+        <v>1.045549861026698</v>
       </c>
       <c r="K21">
-        <v>1.016226848650581</v>
+        <v>1.044500774199119</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9593947478972668</v>
+        <v>1.03871871916941</v>
       </c>
       <c r="N21">
-        <v>1.010919987612246</v>
+        <v>1.047034661755601</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9723944045162938</v>
+        <v>1.038004040062652</v>
       </c>
       <c r="D22">
-        <v>0.996137389346056</v>
+        <v>1.040185650832578</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9339299312966106</v>
+        <v>1.033704181487999</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03241993580097</v>
+        <v>1.041039031655232</v>
       </c>
       <c r="J22">
-        <v>1.004395938567265</v>
+        <v>1.044818686282884</v>
       </c>
       <c r="K22">
-        <v>1.011785755634526</v>
+        <v>1.043878665297437</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9509346115164303</v>
+        <v>1.037422195043636</v>
       </c>
       <c r="N22">
-        <v>1.005822296005855</v>
+        <v>1.046302448659784</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759747421311669</v>
+        <v>1.038524618210234</v>
       </c>
       <c r="D23">
-        <v>0.9988821152396151</v>
+        <v>1.040585232199644</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9389208271264323</v>
+        <v>1.034463233503578</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034018229570695</v>
+        <v>1.041227183370403</v>
       </c>
       <c r="J23">
-        <v>1.007120068565047</v>
+        <v>1.045206626911427</v>
       </c>
       <c r="K23">
-        <v>1.014162424414171</v>
+        <v>1.044208774869276</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.955464200777866</v>
+        <v>1.038109896622432</v>
       </c>
       <c r="N23">
-        <v>1.008550294580695</v>
+        <v>1.046690940208517</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.989394484056238</v>
+        <v>1.04056763501581</v>
       </c>
       <c r="D24">
-        <v>1.009180881102038</v>
+        <v>1.042152651732438</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9575462978085388</v>
+        <v>1.037443758622109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039974782996892</v>
+        <v>1.041961568367194</v>
       </c>
       <c r="J24">
-        <v>1.017306986628447</v>
+        <v>1.046726625307731</v>
       </c>
       <c r="K24">
-        <v>1.023048665868677</v>
+        <v>1.045501381977372</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9723623522492404</v>
+        <v>1.040808789541447</v>
       </c>
       <c r="N24">
-        <v>1.018751679236202</v>
+        <v>1.04821309717689</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003776898633014</v>
+        <v>1.042925495492864</v>
       </c>
       <c r="D25">
-        <v>1.020234616659973</v>
+        <v>1.043960054247836</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.977389866011484</v>
+        <v>1.040887142679539</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046288893682569</v>
+        <v>1.042800808732039</v>
       </c>
       <c r="J25">
-        <v>1.028177820207504</v>
+        <v>1.048475739047921</v>
       </c>
       <c r="K25">
-        <v>1.032526731856487</v>
+        <v>1.046987157705932</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9903496179108078</v>
+        <v>1.043923769877287</v>
       </c>
       <c r="N25">
-        <v>1.029637950645842</v>
+        <v>1.049964694859217</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044796083760568</v>
+        <v>1.014455107266207</v>
       </c>
       <c r="D2">
-        <v>1.045392648093783</v>
+        <v>1.028449299253706</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.043621970825725</v>
+        <v>0.9920635027681961</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043459900759641</v>
+        <v>1.050920299058038</v>
       </c>
       <c r="J2">
-        <v>1.04985925243749</v>
+        <v>1.036211900110443</v>
       </c>
       <c r="K2">
-        <v>1.048161015827129</v>
+        <v>1.039526022824242</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04639531853913</v>
+        <v>1.003634524270468</v>
       </c>
       <c r="N2">
-        <v>1.051350172996491</v>
+        <v>1.037683439863766</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046148677058986</v>
+        <v>1.021814547589001</v>
       </c>
       <c r="D3">
-        <v>1.04642776934678</v>
+        <v>1.034113302827907</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.045601348538653</v>
+        <v>1.002155628674009</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043932582764505</v>
+        <v>1.054079147683824</v>
       </c>
       <c r="J3">
-        <v>1.050857253995145</v>
+        <v>1.041727689355141</v>
       </c>
       <c r="K3">
-        <v>1.049006985890745</v>
+        <v>1.044327538560694</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048182718305146</v>
+        <v>1.012761001932653</v>
       </c>
       <c r="N3">
-        <v>1.052349591830829</v>
+        <v>1.043207062161861</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047021360145061</v>
+        <v>1.026412609045241</v>
       </c>
       <c r="D4">
-        <v>1.047095262747458</v>
+        <v>1.03765259916941</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046879323976043</v>
+        <v>1.00845487726383</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044235748291527</v>
+        <v>1.056037250559599</v>
       </c>
       <c r="J4">
-        <v>1.051500048427794</v>
+        <v>1.045163986806449</v>
       </c>
       <c r="K4">
-        <v>1.04955148872771</v>
+        <v>1.047316874935703</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049336083775651</v>
+        <v>1.018452319243293</v>
       </c>
       <c r="N4">
-        <v>1.052993299105303</v>
+        <v>1.046648239549698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04738763830506</v>
+        <v>1.028308788201342</v>
       </c>
       <c r="D5">
-        <v>1.047375332967939</v>
+        <v>1.03911219885752</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047415928707279</v>
+        <v>1.011051589105554</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044362558721632</v>
+        <v>1.056840997732898</v>
       </c>
       <c r="J5">
-        <v>1.051769573303285</v>
+        <v>1.046578691328998</v>
       </c>
       <c r="K5">
-        <v>1.049779710525772</v>
+        <v>1.04854706679269</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049820208180277</v>
+        <v>1.020797134312753</v>
       </c>
       <c r="N5">
-        <v>1.053263206737032</v>
+        <v>1.048064953114939</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047449103227735</v>
+        <v>1.028625070132608</v>
       </c>
       <c r="D6">
-        <v>1.047422326275686</v>
+        <v>1.039355659617752</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.047505989035115</v>
+        <v>1.011484672479308</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044383813314128</v>
+        <v>1.056974841041772</v>
       </c>
       <c r="J6">
-        <v>1.051814786533546</v>
+        <v>1.04681452327956</v>
       </c>
       <c r="K6">
-        <v>1.049817989851547</v>
+        <v>1.048752110119384</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049901451255848</v>
+        <v>1.021188128764051</v>
       </c>
       <c r="N6">
-        <v>1.053308484175265</v>
+        <v>1.048301119973921</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047026256709513</v>
+        <v>1.026438087648921</v>
       </c>
       <c r="D7">
-        <v>1.047099007189104</v>
+        <v>1.037672211479316</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.046886496671275</v>
+        <v>1.008489772236504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044237445250024</v>
+        <v>1.056048065251179</v>
       </c>
       <c r="J7">
-        <v>1.051503652597071</v>
+        <v>1.045183005362215</v>
       </c>
       <c r="K7">
-        <v>1.049554540931139</v>
+        <v>1.047333415021553</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049342555598635</v>
+        <v>1.018483834367158</v>
       </c>
       <c r="N7">
-        <v>1.052996908392914</v>
+        <v>1.046667285113996</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045253729451071</v>
+        <v>1.01697775097375</v>
       </c>
       <c r="D8">
-        <v>1.045742952142798</v>
+        <v>1.030390624444501</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044291504150657</v>
+        <v>0.995524451703241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043620205506971</v>
+        <v>1.052006341262937</v>
       </c>
       <c r="J8">
-        <v>1.05019715306546</v>
+        <v>1.038104671358825</v>
       </c>
       <c r="K8">
-        <v>1.048447518831006</v>
+        <v>1.041174088535998</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.047000051293578</v>
+        <v>1.006765390381326</v>
       </c>
       <c r="N8">
-        <v>1.051688553482111</v>
+        <v>1.039578899064424</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042110481509635</v>
+        <v>0.9989284536544158</v>
       </c>
       <c r="D9">
-        <v>1.043335509280773</v>
+        <v>1.016506720645732</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.039696448504831</v>
+        <v>0.9707120198339061</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042511759174496</v>
+        <v>1.044169350214195</v>
       </c>
       <c r="J9">
-        <v>1.047871784386871</v>
+        <v>1.024519107812019</v>
       </c>
       <c r="K9">
-        <v>1.046474341913634</v>
+        <v>1.029337546667632</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.042847014955785</v>
+        <v>0.9842988465273291</v>
       </c>
       <c r="N9">
-        <v>1.049359882513274</v>
+        <v>1.025974042459097</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040001071912495</v>
+        <v>0.985768514094739</v>
       </c>
       <c r="D10">
-        <v>1.041718101556942</v>
+        <v>1.006396583069599</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.036616939969973</v>
+        <v>0.9525254727452119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041758564207379</v>
+        <v>1.038371001458065</v>
       </c>
       <c r="J10">
-        <v>1.04630550697576</v>
+        <v>1.014558377229652</v>
       </c>
       <c r="K10">
-        <v>1.045143393664752</v>
+        <v>1.020651297753812</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.040060335737761</v>
+        <v>0.9678082733872081</v>
       </c>
       <c r="N10">
-        <v>1.047791380808585</v>
+        <v>1.015999166496791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039084244720728</v>
+        <v>0.979747829650635</v>
       </c>
       <c r="D11">
-        <v>1.04101470178102</v>
+        <v>1.0017760116349</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.035279402220576</v>
+        <v>0.9441699922665755</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041428990366504</v>
+        <v>1.035698607140519</v>
       </c>
       <c r="J11">
-        <v>1.045623384110342</v>
+        <v>1.009988085627684</v>
       </c>
       <c r="K11">
-        <v>1.044563314015446</v>
+        <v>1.016664512518722</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.038849179209102</v>
+        <v>0.9602276050433208</v>
       </c>
       <c r="N11">
-        <v>1.047108289250456</v>
+        <v>1.011422384556528</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03874316630323</v>
+        <v>0.9774573810372714</v>
       </c>
       <c r="D12">
-        <v>1.040752961251952</v>
+        <v>1.000019106808788</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.034781945110913</v>
+        <v>0.9409847329589909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041306050855474</v>
+        <v>1.034679032261288</v>
       </c>
       <c r="J12">
-        <v>1.045369416056037</v>
+        <v>1.008247404040421</v>
       </c>
       <c r="K12">
-        <v>1.044347272418598</v>
+        <v>1.015145940771471</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.038398605106651</v>
+        <v>0.9573371905323784</v>
       </c>
       <c r="N12">
-        <v>1.046853960532384</v>
+        <v>1.009679231001752</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038816352856722</v>
+        <v>0.9779512400044638</v>
       </c>
       <c r="D13">
-        <v>1.040809126726154</v>
+        <v>1.000397881281687</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.034888680479688</v>
+        <v>0.9416718486798631</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041332445459834</v>
+        <v>1.0348990005556</v>
       </c>
       <c r="J13">
-        <v>1.04542392024074</v>
+        <v>1.008622814845681</v>
       </c>
       <c r="K13">
-        <v>1.044393640182971</v>
+        <v>1.015473454177237</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.038495286623585</v>
+        <v>0.9579607245369928</v>
       </c>
       <c r="N13">
-        <v>1.046908542119281</v>
+        <v>1.010055174933415</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039056061908829</v>
+        <v>0.9795596403680966</v>
       </c>
       <c r="D14">
-        <v>1.040993075791408</v>
+        <v>1.001631640445727</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.035238295361029</v>
+        <v>0.943908424679881</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041418838807691</v>
+        <v>1.035614895011158</v>
       </c>
       <c r="J14">
-        <v>1.045602403268812</v>
+        <v>1.00984510737179</v>
       </c>
       <c r="K14">
-        <v>1.044545467708025</v>
+        <v>1.016539780438124</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.038811948939025</v>
+        <v>0.9599902594001987</v>
       </c>
       <c r="N14">
-        <v>1.047087278613726</v>
+        <v>1.011279203255111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039203684264424</v>
+        <v>0.9805432739863491</v>
       </c>
       <c r="D15">
-        <v>1.041106350818299</v>
+        <v>1.002386281823023</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.035453619699181</v>
+        <v>0.9452753188743701</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041471999398385</v>
+        <v>1.036052326134785</v>
       </c>
       <c r="J15">
-        <v>1.04571229313592</v>
+        <v>1.010592349126298</v>
       </c>
       <c r="K15">
-        <v>1.044638937338544</v>
+        <v>1.017191658039482</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.039006962139108</v>
+        <v>0.9612305545501062</v>
       </c>
       <c r="N15">
-        <v>1.047197324537049</v>
+        <v>1.012027506178619</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040061845296479</v>
+        <v>0.9861608334853863</v>
       </c>
       <c r="D16">
-        <v>1.041764718903892</v>
+        <v>1.006697781874546</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.036705619937105</v>
+        <v>0.9530691047143883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041780364133503</v>
+        <v>1.038544738099992</v>
       </c>
       <c r="J16">
-        <v>1.046350693972683</v>
+        <v>1.014855912221878</v>
       </c>
       <c r="K16">
-        <v>1.045181811546144</v>
+        <v>1.020910824159766</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.040140619597649</v>
+        <v>0.9683014141499298</v>
       </c>
       <c r="N16">
-        <v>1.047836631976226</v>
+        <v>1.016297124022834</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040599218392741</v>
+        <v>0.9895945698820003</v>
       </c>
       <c r="D17">
-        <v>1.042176873152797</v>
+        <v>1.009334554340778</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.037489856417636</v>
+        <v>0.957823121313069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041972869923656</v>
+        <v>1.04006315161789</v>
       </c>
       <c r="J17">
-        <v>1.046750091522209</v>
+        <v>1.017458570769868</v>
       </c>
       <c r="K17">
-        <v>1.045521327343694</v>
+        <v>1.023180870886834</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.040850512766212</v>
+        <v>0.9726134127117229</v>
       </c>
       <c r="N17">
-        <v>1.048236596716084</v>
+        <v>1.018903478644491</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040912327993958</v>
+        <v>0.9915667385659643</v>
       </c>
       <c r="D18">
-        <v>1.042416981872518</v>
+        <v>1.010849424524353</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.037946895106214</v>
+        <v>0.960550411684865</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042084824162318</v>
+        <v>1.040933417745254</v>
       </c>
       <c r="J18">
-        <v>1.046982676295807</v>
+        <v>1.018952174312768</v>
       </c>
       <c r="K18">
-        <v>1.045718997915534</v>
+        <v>1.024483474293835</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.041264148012572</v>
+        <v>0.975086709181931</v>
       </c>
       <c r="N18">
-        <v>1.048469511786739</v>
+        <v>1.020399203275741</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041019034467718</v>
+        <v>0.9922341515313915</v>
       </c>
       <c r="D19">
-        <v>1.042498803136295</v>
+        <v>1.01136215003481</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.038102667445217</v>
+        <v>0.9614728644861821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042122941648363</v>
+        <v>1.041227617112165</v>
       </c>
       <c r="J19">
-        <v>1.047061918012432</v>
+        <v>1.01945742411776</v>
       </c>
       <c r="K19">
-        <v>1.045786337091842</v>
+        <v>1.024924091030956</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.041405114016835</v>
+        <v>0.9759231794655656</v>
       </c>
       <c r="N19">
-        <v>1.04854886603569</v>
+        <v>1.020905170593408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040541597667366</v>
+        <v>0.9892293728843333</v>
       </c>
       <c r="D20">
-        <v>1.04213268335826</v>
+        <v>1.00905407214268</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.037405756089228</v>
+        <v>0.957317844671986</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041952250160689</v>
+        <v>1.039901850631038</v>
       </c>
       <c r="J20">
-        <v>1.046707279012205</v>
+        <v>1.017181892121098</v>
       </c>
       <c r="K20">
-        <v>1.045484938140253</v>
+        <v>1.022939563242133</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.040774392920999</v>
+        <v>0.9721551581039595</v>
       </c>
       <c r="N20">
-        <v>1.048193723407405</v>
+        <v>1.018626407080303</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038985488233841</v>
+        <v>0.9790875504333209</v>
       </c>
       <c r="D21">
-        <v>1.040938920320399</v>
+        <v>1.001269487246144</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.035135360224155</v>
+        <v>0.9432521479632773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041393412545535</v>
+        <v>1.035404848813793</v>
       </c>
       <c r="J21">
-        <v>1.045549861026698</v>
+        <v>1.009486401132929</v>
       </c>
       <c r="K21">
-        <v>1.044500774199119</v>
+        <v>1.01622684865058</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.03871871916941</v>
+        <v>0.9593947478972668</v>
       </c>
       <c r="N21">
-        <v>1.047034661755601</v>
+        <v>1.010919987612246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038004040062652</v>
+        <v>0.9723944045162959</v>
       </c>
       <c r="D22">
-        <v>1.040185650832578</v>
+        <v>0.9961373893460576</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.033704181487999</v>
+        <v>0.9339299312966128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041039031655232</v>
+        <v>1.032419935800971</v>
       </c>
       <c r="J22">
-        <v>1.044818686282884</v>
+        <v>1.004395938567266</v>
       </c>
       <c r="K22">
-        <v>1.043878665297437</v>
+        <v>1.011785755634527</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.037422195043636</v>
+        <v>0.9509346115164325</v>
       </c>
       <c r="N22">
-        <v>1.046302448659784</v>
+        <v>1.005822296005857</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038524618210234</v>
+        <v>0.9759747421311696</v>
       </c>
       <c r="D23">
-        <v>1.040585232199644</v>
+        <v>0.9988821152396176</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.034463233503578</v>
+        <v>0.9389208271264357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041227183370403</v>
+        <v>1.034018229570697</v>
       </c>
       <c r="J23">
-        <v>1.045206626911427</v>
+        <v>1.007120068565049</v>
       </c>
       <c r="K23">
-        <v>1.044208774869276</v>
+        <v>1.014162424414173</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.038109896622432</v>
+        <v>0.9554642007778693</v>
       </c>
       <c r="N23">
-        <v>1.046690940208517</v>
+        <v>1.008550294580699</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04056763501581</v>
+        <v>0.9893944840562393</v>
       </c>
       <c r="D24">
-        <v>1.042152651732438</v>
+        <v>1.009180881102039</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.037443758622109</v>
+        <v>0.9575462978085397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041961568367194</v>
+        <v>1.039974782996893</v>
       </c>
       <c r="J24">
-        <v>1.046726625307731</v>
+        <v>1.017306986628449</v>
       </c>
       <c r="K24">
-        <v>1.045501381977372</v>
+        <v>1.023048665868678</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.040808789541447</v>
+        <v>0.9723623522492413</v>
       </c>
       <c r="N24">
-        <v>1.04821309717689</v>
+        <v>1.018751679236203</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042925495492864</v>
+        <v>1.003776898633016</v>
       </c>
       <c r="D25">
-        <v>1.043960054247836</v>
+        <v>1.020234616659975</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.040887142679539</v>
+        <v>0.9773898660114861</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042800808732039</v>
+        <v>1.04628889368257</v>
       </c>
       <c r="J25">
-        <v>1.048475739047921</v>
+        <v>1.028177820207505</v>
       </c>
       <c r="K25">
-        <v>1.046987157705932</v>
+        <v>1.032526731856489</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.043923769877287</v>
+        <v>0.9903496179108098</v>
       </c>
       <c r="N25">
-        <v>1.049964694859217</v>
+        <v>1.029637950645844</v>
       </c>
     </row>
   </sheetData>
